--- a/src/data/Book.xlsx
+++ b/src/data/Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-75" windowWidth="2100" windowHeight="1185" activeTab="1"/>
+    <workbookView xWindow="90" yWindow="-75" windowWidth="2100" windowHeight="1185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Hi</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Vivo</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
 </sst>
 </file>
@@ -79,12 +85,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,9 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,78 +479,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -545,12 +574,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>